--- a/ITsleng_project/Files/DB_Сценарий_v1.1.xlsx
+++ b/ITsleng_project/Files/DB_Сценарий_v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TSuvorov_Projects\AliceProjects\ITsleng_project\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C20FABB-DE7D-4CC6-B483-A30BE49C6199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CFF1EA-20A0-44E9-8A2D-F05ABFBF1832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="590">
   <si>
     <t>Правила</t>
   </si>
@@ -1222,9 +1222,6 @@
     <t>Сохранение изменений в программном коде. Это позволяет возвращаться к предыдущим версиям кода.</t>
   </si>
   <si>
-    <t>Отличный способ перенести проблему сегодня на завтра.</t>
-  </si>
-  <si>
     <t>Прим+ерыsil &lt;[80]&gt;, схожий функционал или внешний вид, который используется для ориентира.</t>
   </si>
   <si>
@@ -1795,9 +1792,6 @@
     <t>["спринт", "виспер", "лаунчер", "спринг", "веспер", "принт", "виски"]</t>
   </si>
   <si>
-    <t>["коммит", "сапп+орт", "хэлп", "камит", "камид", "комид", "комит", "сапорт", "сапор", "саппорт", "help", "help help", "ковид", "сапорн", "запор"]</t>
-  </si>
-  <si>
     <t>["реф", "чит", "флопик", "рев", "щит", "чек", "хлопик", "флопинг", "ловек", "фопик"]</t>
   </si>
   <si>
@@ -1837,9 +1831,6 @@
     <t>["рез+олвить", "т+эгать", "ренд+эрить", "резолвец", "резол ведь", "резовец", "резалвить", "резолвит", "резолвить", "тягач", "тягать", "вендерить", "рендерить", "виндерить", "рандерит", "рендеритс", "арендарец", "рендерит", "рандарит", "ведь", "такать", "везувий", "календарить"]</t>
   </si>
   <si>
-    <t>["зап+ушить", "комм+ит", "репл+ай", "уж", "порш", "камит", "камид", "комид", "комит", "реплай", "комет", "комикс", "запушить", "комед"]</t>
-  </si>
-  <si>
     <t>["пред+иктить", "к+икнуть", "х+антить", "приди к титьке", "придиктить", "придитесь", "приди", "кихнуть", "чихнуть", "кикнуть", "хантит", "хантить", "квантить квантить", "квантить", "придиксить"]</t>
   </si>
   <si>
@@ -1859,6 +1850,18 @@
   </si>
   <si>
     <t>["ассайнить", "фарвард+ить", "мёржить", "вар", "мер", "санить", "соединить", "осайнить", "форвардить", "фарвар тить", "форвард", "фарвардить", "мершить", "мёрзить", "форвард", "подводись", "мёрзнуть", "мержить"]</t>
+  </si>
+  <si>
+    <t>Отличный способ перенести проблему с сегодня на завтра.</t>
+  </si>
+  <si>
+    <t>["зап+ушить", "комм+итить", "репл+аить", "уж", "порш", "камит", "камид", "комид", "комит", "реплай", "комет", "комикс", "пушить", "комед", "слушать", "репл", "камитились", "хардкорины", "хардкорели", "камителись"]</t>
+  </si>
+  <si>
+    <t>["коммит", "сапп+орт", "деплой", "камит", "камид", "комид", "комит", "сапорт", "сапор", "саппорт", "не плой", "диплой", "диплоид", "плой", "теплой", "ковид", "сапорн", "запор"]</t>
+  </si>
+  <si>
+    <t>["бэкл+ог", "бэк лок", "бэклок", "быклог", "black", "lock", "бэклог", "back", "дак ок"]</t>
   </si>
 </sst>
 </file>
@@ -4103,9 +4106,9 @@
   </sheetPr>
   <dimension ref="A1:I1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
@@ -4161,10 +4164,10 @@
         <v>177</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>179</v>
@@ -4188,10 +4191,10 @@
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="43" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>181</v>
@@ -4217,10 +4220,10 @@
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="49" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>185</v>
@@ -4248,10 +4251,10 @@
         <v>177</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E5" s="49" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>188</v>
@@ -4279,13 +4282,13 @@
         <v>177</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E6" s="58" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F6" s="74" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>190</v>
@@ -4308,13 +4311,13 @@
       </c>
       <c r="C7" s="42"/>
       <c r="D7" s="72" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E7" s="72" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F7" s="72" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>26</v>
@@ -4339,10 +4342,10 @@
         <v>177</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E8" s="49" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>194</v>
@@ -4366,10 +4369,10 @@
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E9" s="49" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>196</v>
@@ -4397,10 +4400,10 @@
         <v>177</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E10" s="59" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F10" s="59" t="s">
         <v>198</v>
@@ -4428,10 +4431,10 @@
         <v>177</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>199</v>
@@ -4458,7 +4461,7 @@
         <v>347</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>201</v>
@@ -4484,10 +4487,10 @@
       </c>
       <c r="C13" s="42"/>
       <c r="D13" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E13" s="58" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F13" s="58" t="s">
         <v>203</v>
@@ -4515,10 +4518,10 @@
         <v>177</v>
       </c>
       <c r="D14" s="60" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E14" s="72" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F14" s="60" t="s">
         <v>207</v>
@@ -4546,10 +4549,10 @@
         <v>177</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>209</v>
@@ -4577,10 +4580,10 @@
         <v>177</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>211</v>
@@ -4606,13 +4609,13 @@
       </c>
       <c r="C17" s="61"/>
       <c r="D17" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F17" s="49" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>182</v>
@@ -4637,10 +4640,10 @@
         <v>177</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>215</v>
@@ -4669,7 +4672,7 @@
         <v>216</v>
       </c>
       <c r="E19" s="49" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>217</v>
@@ -4695,10 +4698,10 @@
       </c>
       <c r="C20" s="42"/>
       <c r="D20" s="43" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>220</v>
@@ -4724,10 +4727,10 @@
       </c>
       <c r="C21" s="42"/>
       <c r="D21" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>223</v>
@@ -4753,10 +4756,10 @@
       </c>
       <c r="C22" s="42"/>
       <c r="D22" s="43" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>225</v>
@@ -4780,10 +4783,10 @@
       </c>
       <c r="C23" s="42"/>
       <c r="D23" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>228</v>
@@ -4808,10 +4811,10 @@
         <v>177</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>230</v>
@@ -4837,10 +4840,10 @@
       </c>
       <c r="C25" s="42"/>
       <c r="D25" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>233</v>
@@ -4867,7 +4870,7 @@
         <v>234</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>235</v>
@@ -4892,10 +4895,10 @@
         <v>177</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>238</v>
@@ -4919,10 +4922,10 @@
       <c r="B28" s="65"/>
       <c r="C28" s="42"/>
       <c r="D28" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>241</v>
@@ -4948,10 +4951,10 @@
       </c>
       <c r="C29" s="42"/>
       <c r="D29" s="43" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>244</v>
@@ -4977,10 +4980,10 @@
       </c>
       <c r="C30" s="42"/>
       <c r="D30" s="49" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E30" s="49" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>247</v>
@@ -5008,13 +5011,13 @@
         <v>177</v>
       </c>
       <c r="D31" s="49" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E31" s="49" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4" t="e">
@@ -5035,10 +5038,10 @@
       </c>
       <c r="C32" s="42"/>
       <c r="D32" s="43" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E32" s="49" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>250</v>
@@ -5064,10 +5067,10 @@
       </c>
       <c r="C33" s="42"/>
       <c r="D33" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E33" s="58" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F33" s="58" t="s">
         <v>253</v>
@@ -5095,10 +5098,10 @@
         <v>177</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F34" s="49" t="s">
         <v>256</v>
@@ -5124,10 +5127,10 @@
         <v>177</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>258</v>
@@ -5153,10 +5156,10 @@
         <v>177</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>260</v>
@@ -5182,10 +5185,10 @@
       </c>
       <c r="C37" s="42"/>
       <c r="D37" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>263</v>
@@ -5214,7 +5217,7 @@
         <v>216</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>265</v>
@@ -5242,10 +5245,10 @@
         <v>177</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>267</v>
@@ -5271,10 +5274,10 @@
       </c>
       <c r="C40" s="68"/>
       <c r="D40" s="43" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F40" s="49" t="s">
         <v>269</v>
@@ -5300,10 +5303,10 @@
       </c>
       <c r="C41" s="42"/>
       <c r="D41" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>271</v>
@@ -5334,7 +5337,7 @@
         <v>273</v>
       </c>
       <c r="E42" s="49" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>274</v>
@@ -5360,10 +5363,10 @@
       </c>
       <c r="C43" s="42"/>
       <c r="D43" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>276</v>
@@ -5386,10 +5389,10 @@
       </c>
       <c r="C44" s="42"/>
       <c r="D44" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>278</v>
@@ -5417,10 +5420,10 @@
         <v>177</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>492</v>
+        <v>589</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>280</v>
@@ -5434,7 +5437,7 @@
       </c>
       <c r="I45" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>{'sentence': 'Вставь слово в предложение. Надо уже разгрести этот &lt;...&gt;!', 'answers': ["бэкл+ог", "бэк лок", "бэклок", "быклог", "black lock", "бэклог", "backlock", "дак ок"], 'explanation': 'Бэкл+ог -  –  это просто не реализованная очередь работ.', 'variants': ["бэкл+ог", "трабл", "аттач", "тра", "ач", "backlock", "атач", "дак ок", "бэклок", "крабл", "антач"], 'category': [] },</v>
+        <v>{'sentence': 'Вставь слово в предложение. Надо уже разгрести этот &lt;...&gt;!', 'answers': ["бэкл+ог", "бэк лок", "бэклок", "быклог", "black", "lock", "бэклог", "back", "дак ок"], 'explanation': 'Бэкл+ог -  –  это просто не реализованная очередь работ.', 'variants': ["бэкл+ог", "трабл", "аттач", "тра", "ач", "backlock", "атач", "дак ок", "бэклок", "крабл", "антач"], 'category': [] },</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -5446,10 +5449,10 @@
       </c>
       <c r="C46" s="42"/>
       <c r="D46" s="43" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>283</v>
@@ -5477,10 +5480,10 @@
         <v>177</v>
       </c>
       <c r="D47" s="51" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E47" s="73" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F47" s="51" t="s">
         <v>285</v>
@@ -5504,10 +5507,10 @@
       <c r="B48" s="42"/>
       <c r="C48" s="42"/>
       <c r="D48" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E48" s="49" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F48" s="49" t="s">
         <v>374</v>
@@ -5531,13 +5534,13 @@
       <c r="B49" s="42"/>
       <c r="C49" s="42"/>
       <c r="D49" s="49" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E49" s="49" t="s">
-        <v>567</v>
+        <v>588</v>
       </c>
       <c r="F49" s="49" t="s">
-        <v>376</v>
+        <v>586</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>182</v>
@@ -5548,23 +5551,23 @@
       </c>
       <c r="I49" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>{'sentence': 'Сохранение изменений в программном коде. Это позволяет возвращаться к предыдущим версиям кода.', 'answers': ["коммит", "комит", "камит", "камид", "комид", "ковид"], 'explanation': 'Отличный способ перенести проблему сегодня на завтра.', 'variants': ["коммит", "сапп+орт", "хэлп", "камит", "камид", "комид", "комит", "сапорт", "сапор", "саппорт", "help", "help help", "ковид", "сапорн", "запор"], 'category': [] },</v>
+        <v>{'sentence': 'Сохранение изменений в программном коде. Это позволяет возвращаться к предыдущим версиям кода.', 'answers': ["коммит", "комит", "камит", "камид", "комид", "ковид"], 'explanation': 'Отличный способ перенести проблему с сегодня на завтра.', 'variants': ["коммит", "сапп+орт", "деплой", "камит", "камид", "комид", "комит", "сапорт", "сапор", "саппорт", "не плой", "диплой", "диплоид", "плой", "теплой", "ковид", "сапорн", "запор"], 'category': [] },</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B50" s="42"/>
       <c r="C50" s="42"/>
       <c r="D50" s="49" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E50" s="49" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F50" s="49" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>190</v>
@@ -5580,18 +5583,18 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="49" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B51" s="42"/>
       <c r="C51" s="42"/>
       <c r="D51" s="49" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E51" s="49" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F51" s="49" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>190</v>
@@ -5607,7 +5610,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="49" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B52" s="42"/>
       <c r="C52" s="42"/>
@@ -5615,10 +5618,10 @@
         <v>290</v>
       </c>
       <c r="E52" s="49" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F52" s="49" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>239</v>
@@ -5639,13 +5642,13 @@
       <c r="B53" s="42"/>
       <c r="C53" s="42"/>
       <c r="D53" s="53" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E53" s="49" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F53" s="49" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>190</v>
@@ -5666,13 +5669,13 @@
       <c r="B54" s="42"/>
       <c r="C54" s="42"/>
       <c r="D54" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E54" s="49" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F54" s="49" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>182</v>
@@ -5688,18 +5691,18 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="49" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B55" s="42"/>
       <c r="C55" s="42"/>
       <c r="D55" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E55" s="49" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>182</v>
@@ -5720,13 +5723,13 @@
       <c r="B56" s="42"/>
       <c r="C56" s="42"/>
       <c r="D56" s="53" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E56" s="53" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>182</v>
@@ -5747,13 +5750,13 @@
       <c r="B57" s="42"/>
       <c r="C57" s="42"/>
       <c r="D57" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E57" s="49" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>182</v>
@@ -5774,13 +5777,13 @@
       <c r="B58" s="42"/>
       <c r="C58" s="42"/>
       <c r="D58" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E58" s="49" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>182</v>
@@ -5801,13 +5804,13 @@
       <c r="B59" s="42"/>
       <c r="C59" s="42"/>
       <c r="D59" s="53" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E59" s="53" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>190</v>
@@ -5828,13 +5831,13 @@
       <c r="B60" s="42"/>
       <c r="C60" s="42"/>
       <c r="D60" s="43" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E60" s="53" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>190</v>
@@ -5850,18 +5853,18 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="55" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B61" s="42"/>
       <c r="C61" s="42"/>
       <c r="D61" s="49" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F61" s="50" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H61" s="4" t="e">
         <f>"{'sentence': '"&amp;A61&amp;"', 'answers': "&amp;D61&amp;", 'explanation': '"&amp;F61&amp;"', 'variants': "&amp;#REF!&amp;", 'category': [] },"</f>
@@ -5874,20 +5877,20 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="55" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B62" s="46"/>
       <c r="C62" s="46" t="s">
         <v>305</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F62" s="49" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>239</v>
@@ -5903,18 +5906,18 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="50" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B63" s="42"/>
       <c r="C63" s="42"/>
       <c r="D63" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E63" s="49" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F63" s="50" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H63" s="4" t="e">
         <f>"{'sentence': '"&amp;A63&amp;"', 'answers': "&amp;D63&amp;", 'explanation': '"&amp;F63&amp;"', 'variants': "&amp;#REF!&amp;", 'category': [] },"</f>
@@ -5927,18 +5930,18 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B64" s="42"/>
       <c r="C64" s="42"/>
       <c r="D64" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E64" s="49" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F64" s="50" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H64" s="4" t="e">
         <f>"{'sentence': '"&amp;A64&amp;"', 'answers': "&amp;D64&amp;", 'explanation': '"&amp;F64&amp;"', 'variants': "&amp;#REF!&amp;", 'category': [] },"</f>
@@ -5951,18 +5954,18 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B65" s="42"/>
       <c r="C65" s="42"/>
       <c r="D65" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F65" s="50" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H65" s="4" t="e">
         <f>"{'sentence': '"&amp;A65&amp;"', 'answers': "&amp;D65&amp;", 'explanation': '"&amp;F65&amp;"', 'variants': "&amp;#REF!&amp;", 'category': [] },"</f>
@@ -5975,18 +5978,18 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="50" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B66" s="42"/>
       <c r="C66" s="42"/>
       <c r="D66" s="49" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E66" s="49" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F66" s="50" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H66" s="4" t="e">
         <f>"{'sentence': '"&amp;A66&amp;"', 'answers': "&amp;D66&amp;", 'explanation': '"&amp;F66&amp;"', 'variants': "&amp;#REF!&amp;", 'category': [] },"</f>
@@ -5999,18 +6002,18 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="50" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B67" s="42"/>
       <c r="C67" s="42"/>
       <c r="D67" s="49" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E67" s="49" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F67" s="50" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H67" s="4" t="e">
         <f>"{'sentence': '"&amp;A67&amp;"', 'answers': "&amp;D67&amp;", 'explanation': '"&amp;F67&amp;"', 'variants': "&amp;#REF!&amp;", 'category': [] },"</f>
@@ -6023,18 +6026,18 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="50" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B68" s="42"/>
       <c r="C68" s="42"/>
       <c r="D68" s="49" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E68" s="49" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F68" s="50" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H68" s="4" t="e">
         <f>"{'sentence': '"&amp;A68&amp;"', 'answers': "&amp;D68&amp;", 'explanation': '"&amp;F68&amp;"', 'variants': "&amp;#REF!&amp;", 'category': [] },"</f>
@@ -6047,18 +6050,18 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="50" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B69" s="42"/>
       <c r="C69" s="42"/>
       <c r="D69" s="49" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E69" s="49" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="F69" s="50" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H69" s="4" t="e">
         <f>"{'sentence': '"&amp;A69&amp;"', 'answers': "&amp;D69&amp;", 'explanation': '"&amp;F69&amp;"', 'variants': "&amp;#REF!&amp;", 'category': [] },"</f>
@@ -6066,23 +6069,23 @@
       </c>
       <c r="I69" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>{'sentence': 'Отправить изменения в удалённый репозиторий.', 'answers': ["зап+ушить"], 'explanation': 'Когда у программиста спрашивают, как дела с пушем, никто не удивляется, что это не про наркотики.', 'variants': ["зап+ушить", "комм+ит", "репл+ай", "уж", "порш", "камит", "камид", "комид", "комит", "реплай", "комет", "комикс", "запушить", "комед"], 'category': [] },</v>
+        <v>{'sentence': 'Отправить изменения в удалённый репозиторий.', 'answers': ["зап+ушить"], 'explanation': 'Когда у программиста спрашивают, как дела с пушем, никто не удивляется, что это не про наркотики.', 'variants': ["зап+ушить", "комм+итить", "репл+аить", "уж", "порш", "камит", "камид", "комид", "комит", "реплай", "комет", "комикс", "пушить", "комед", "слушать", "репл", "камитились", "хардкорины", "хардкорели", "камителись"], 'category': [] },</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="50" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B70" s="42"/>
       <c r="C70" s="42"/>
       <c r="D70" s="49" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E70" s="49" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="F70" s="50" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H70" s="4" t="e">
         <f>"{'sentence': '"&amp;A70&amp;"', 'answers': "&amp;D70&amp;", 'explanation': '"&amp;F70&amp;"', 'variants': "&amp;#REF!&amp;", 'category': [] },"</f>
@@ -6095,18 +6098,18 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="50" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B71" s="42"/>
       <c r="C71" s="42"/>
       <c r="D71" s="49" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E71" s="49" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F71" s="50" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H71" s="4" t="e">
         <f>"{'sentence': '"&amp;A71&amp;"', 'answers': "&amp;D71&amp;", 'explanation': '"&amp;F71&amp;"', 'variants': "&amp;#REF!&amp;", 'category': [] },"</f>
@@ -6119,18 +6122,18 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="50" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B72" s="42"/>
       <c r="C72" s="42"/>
       <c r="D72" s="49" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E72" s="49" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F72" s="50" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H72" s="4" t="e">
         <f>"{'sentence': '"&amp;A72&amp;"', 'answers': "&amp;D72&amp;", 'explanation': '"&amp;F72&amp;"', 'variants': "&amp;#REF!&amp;", 'category': [] },"</f>
@@ -6143,18 +6146,18 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="50" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B73" s="42"/>
       <c r="C73" s="42"/>
       <c r="D73" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E73" s="49" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F73" s="50" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H73" s="4" t="e">
         <f>"{'sentence': '"&amp;A73&amp;"', 'answers': "&amp;D73&amp;", 'explanation': '"&amp;F73&amp;"', 'variants': "&amp;#REF!&amp;", 'category': [] },"</f>
@@ -6169,7 +6172,7 @@
       <c r="B74" s="42"/>
       <c r="C74" s="42"/>
       <c r="D74" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E74" s="49" t="s">
         <v>306</v>
@@ -6187,7 +6190,7 @@
       <c r="B75" s="42"/>
       <c r="C75" s="42"/>
       <c r="D75" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E75" s="49" t="s">
         <v>306</v>
@@ -6205,7 +6208,7 @@
       <c r="B76" s="42"/>
       <c r="C76" s="42"/>
       <c r="D76" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E76" s="49" t="s">
         <v>306</v>
@@ -10352,7 +10355,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C65" si="0">IF(A2=B2,1,0)</f>
@@ -10361,10 +10364,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="43" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
@@ -10373,10 +10376,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="49" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
@@ -10385,10 +10388,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
@@ -10397,10 +10400,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="58" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -10409,10 +10412,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="72" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -10421,10 +10424,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="49" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -10433,10 +10436,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -10448,7 +10451,7 @@
         <v>197</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -10457,10 +10460,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="49" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -10481,10 +10484,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -10493,10 +10496,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="60" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -10505,10 +10508,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -10520,7 +10523,7 @@
         <v>210</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -10529,10 +10532,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -10541,10 +10544,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -10565,10 +10568,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="43" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -10580,7 +10583,7 @@
         <v>222</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -10589,10 +10592,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="43" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -10604,7 +10607,7 @@
         <v>227</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -10613,10 +10616,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -10628,7 +10631,7 @@
         <v>232</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
@@ -10649,10 +10652,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
@@ -10664,7 +10667,7 @@
         <v>240</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
@@ -10673,10 +10676,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="43" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
@@ -10685,10 +10688,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="49" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
@@ -10697,10 +10700,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="49" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
@@ -10709,10 +10712,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="43" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B32" s="58" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
@@ -10721,10 +10724,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
@@ -10733,10 +10736,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
@@ -10745,10 +10748,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
@@ -10757,10 +10760,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
@@ -10772,7 +10775,7 @@
         <v>262</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
@@ -10793,10 +10796,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
@@ -10805,10 +10808,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="43" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
@@ -10817,10 +10820,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
@@ -10841,10 +10844,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
@@ -10853,10 +10856,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
@@ -10865,10 +10868,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
@@ -10880,7 +10883,7 @@
         <v>282</v>
       </c>
       <c r="B46" s="51" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
@@ -10892,7 +10895,7 @@
         <v>262</v>
       </c>
       <c r="B47" s="49" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
@@ -10901,10 +10904,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B48" s="49" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
@@ -10913,10 +10916,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="49" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B49" s="49" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
@@ -10925,10 +10928,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="49" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B50" s="49" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
@@ -10937,10 +10940,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="49" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B51" s="49" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
@@ -10961,10 +10964,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="53" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B53" s="49" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
@@ -10973,10 +10976,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B54" s="49" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
@@ -10985,10 +10988,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B55" s="53" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
@@ -10997,10 +11000,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="53" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B56" s="49" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
@@ -11009,10 +11012,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B57" s="49" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
@@ -11021,10 +11024,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B58" s="53" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
@@ -11033,10 +11036,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="53" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B59" s="53" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
@@ -11045,10 +11048,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="43" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
@@ -11057,10 +11060,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="49" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
@@ -11069,10 +11072,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B62" s="49" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
@@ -11081,10 +11084,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B63" s="49" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
@@ -11093,10 +11096,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
@@ -11105,10 +11108,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B65" s="49" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
@@ -11117,10 +11120,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="49" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B66" s="49" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C66">
         <f t="shared" ref="C66:C72" si="1">IF(A66=B66,1,0)</f>
@@ -11129,10 +11132,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="49" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B67" s="49" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C67">
         <f t="shared" si="1"/>
@@ -11141,10 +11144,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="49" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B68" s="49" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C68">
         <f t="shared" si="1"/>
@@ -11153,10 +11156,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="49" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B69" s="49" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C69">
         <f t="shared" si="1"/>
@@ -11165,10 +11168,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="49" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B70" s="49" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C70">
         <f t="shared" si="1"/>
@@ -11177,10 +11180,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="49" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B71" s="49" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C71">
         <f t="shared" si="1"/>
@@ -11189,10 +11192,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="49" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B72" s="49" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C72">
         <f t="shared" si="1"/>
@@ -11201,10 +11204,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B73" s="50" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
